--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_276.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_276.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,278 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:58.440000', '0:02:02')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:12.520000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5357142857142857</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['E:maj/B', 'B:maj', 'B:7', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:05.360000'), ('0:02:05.760000', '0:02:21.140000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1093350383631713</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'F']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(55.935192, 62.15814)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.400000', '0:00:18.240000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:04.740000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -753,450 +768,414 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5230769230769231</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(17.38, 24.82)]</t>
+          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3540229885057471</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:27.280000', '0:00:57.900000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:00:08.260000', '0:00:12.960000'), ('0:00:00.360000', '0:00:05.060000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:12.140000', '0:00:20.020000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.66, 20.74)]</t>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.8, 12.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(20.58, 32.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
